--- a/HARDWARE/BOMLIST.xlsx
+++ b/HARDWARE/BOMLIST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATK\HARDWARE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A4048B-40C7-4B4A-B79A-27BA9C71EC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48440048-6B69-4B70-B05F-C329992E9742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4836" yWindow="0" windowWidth="18204" windowHeight="12360" xr2:uid="{D3312250-90C3-437D-B229-73BB7FE7AA11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D3312250-90C3-437D-B229-73BB7FE7AA11}"/>
   </bookViews>
   <sheets>
     <sheet name="UWB_Project" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="116">
   <si>
     <t>Comment</t>
   </si>
@@ -369,13 +369,22 @@
     <t>Đã mua</t>
   </si>
   <si>
-    <t>xxx</t>
-  </si>
-  <si>
     <t>shop</t>
   </si>
   <si>
     <t>SL</t>
+  </si>
+  <si>
+    <t>Có</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>cxt: 32000</t>
+  </si>
+  <si>
+    <t>lk: 177500</t>
   </si>
 </sst>
 </file>
@@ -397,7 +406,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +416,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,28 +473,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -794,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ECE9043-56A8-4B6E-8A72-08E3D21EA2FF}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -805,10 +830,11 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="9" width="8.796875" style="7"/>
+    <col min="7" max="9" width="8.796875" style="6"/>
+    <col min="10" max="10" width="11.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,17 +853,20 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -856,17 +885,20 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="H2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -885,17 +917,20 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -914,17 +949,17 @@
       <c r="F4" s="3">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="G4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I4" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -943,17 +978,17 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -972,14 +1007,14 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -998,17 +1033,17 @@
       <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1027,17 +1062,17 @@
       <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1056,17 +1091,17 @@
       <c r="F9" s="3">
         <v>3</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="G9" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -1085,17 +1120,17 @@
       <c r="F10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="G10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -1114,17 +1149,17 @@
       <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H11" s="8" t="s">
+      <c r="G11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
@@ -1143,46 +1178,46 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="G12" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="45.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
@@ -1201,17 +1236,17 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="G14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" s="6">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -1230,17 +1265,17 @@
       <c r="F15" s="3">
         <v>1</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="8" t="s">
+      <c r="G15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1259,13 +1294,13 @@
       <c r="F16" s="3">
         <v>1</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="G16" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I16" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1288,13 +1323,13 @@
       <c r="F17" s="3">
         <v>1</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="G17" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1317,13 +1352,13 @@
       <c r="F18" s="3">
         <v>1</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="G18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1346,13 +1381,13 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="G19" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I19" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1375,13 +1410,13 @@
       <c r="F20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="G20" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1404,13 +1439,13 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I21" s="7">
+      <c r="G21" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I21" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1433,13 +1468,13 @@
       <c r="F22" s="3">
         <v>1</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="G22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1462,13 +1497,13 @@
       <c r="F23" s="3">
         <v>1</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I23" s="7">
+      <c r="G23" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1491,13 +1526,13 @@
       <c r="F24" s="3">
         <v>1</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="G24" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1520,13 +1555,13 @@
       <c r="F25" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="7">
+      <c r="G25" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1549,13 +1584,13 @@
       <c r="F26" s="3">
         <v>1</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="7">
+      <c r="G26" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I26" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1578,13 +1613,13 @@
       <c r="F27" s="3">
         <v>1</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="G27" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1607,13 +1642,13 @@
       <c r="F28" s="3">
         <v>4</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="G28" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1636,13 +1671,13 @@
       <c r="F29" s="3">
         <v>3</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I29" s="7">
+      <c r="G29" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I29" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1665,13 +1700,13 @@
       <c r="F30" s="3">
         <v>8</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I30" s="7">
+      <c r="G30" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1694,13 +1729,13 @@
       <c r="F31" s="3">
         <v>1</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="7">
+      <c r="G31" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1723,64 +1758,67 @@
       <c r="F32" s="3">
         <v>2</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="7" t="s">
+      <c r="G32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="F33" s="9">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="I33" s="7">
+      <c r="H33" s="10"/>
+      <c r="I33" s="10">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:9" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="F34" s="9">
+        <v>1</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
@@ -1801,13 +1839,13 @@
       <c r="F35" s="3">
         <v>1</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" s="7">
+      <c r="G35" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1830,13 +1868,13 @@
       <c r="F36" s="3">
         <v>1</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I36" s="7">
+      <c r="G36" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I36" s="6">
         <v>5</v>
       </c>
     </row>
